--- a/medicine/Mort/Cimetière_de_Powązki/Cimetière_de_Powązki.xlsx
+++ b/medicine/Mort/Cimetière_de_Powązki/Cimetière_de_Powązki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Pow%C4%85zki</t>
+          <t>Cimetière_de_Powązki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Powązki (en polonais : Cmentarz Powązkowski, dit Stare Powązki, ‘Vieux Powązki‘) est un cimetière à Varsovie, situé au 14 rue Powązkowska. Sur ses 44 hectares, gisent les plus grands poètes, artistes, penseurs, hommes politiques et dissidents polonais, grands citoyens de Varsovie et héros anonymes. Ce cimetière civil forme avec ceux avoisinants, juif, protestant, et militaire, la plus grande et la plus prestigieuse nécropole de Pologne. C'est également le plus ancien cimetière du pays.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Pow%C4%85zki</t>
+          <t>Cimetière_de_Powązki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Stare Powązki a été fondé le 4 novembre 1790 sur un terrain offert par la famille Szymanowski.   Créé d’après le projet de Domenico Merlini, architecte en titre de la cour du roi Stanisław August Poniatowski et consacré le 20 mai 1792, le cimetière occupait initialement une superficie d'environ 2 à 2,5 ha.
 À l'époque de sa fondation, il était situé en dehors de la ville, près d’un petit village portant le même nom. Les sépultures n’étaient pas ornées de sculptures, les défunts étaient simplement enterrés. C’est seulement à la fin du XIXe siècle, avec l’avènement du romantisme, que les pierres tombales ont vu le jour. Le cimetière a été agrandi plusieurs fois et couvre aujourd'hui 43 ha.
@@ -520,9 +534,6 @@
 Parmi un million de personnes enterrés ici, il y a de nombreux Polonais connus et distingués, y compris des participants des soulèvements nationaux, de l'insurrection de Kościuszko de 1794 au soulèvement de Varsovie en 1944, des militants de l’indépendance, des écrivains, des poètes, des érudits, des artistes, des penseurs, des médecins, des juristes et des membres du clergé. Certains d'entre eux ont été enterrés à l'Allée d'Honneur, crée en 1925. Władysław Reymont, prix Nobel de littérature en 1924 fut le premier a y être enterré. Dans l'Allée se trouve également la tombe symbolique de Stefan Starzyński, le président et défenseur héroïque de la capitale polonaise en septembre 1939, assassiné par les Allemands. À ses côtés il y a également les tombes symboliques du président Ignacy Mościcki et des autorités du l'État polonais clandestin. Artistes, acteurs, poètes reposent ici, pour ne pas nommer que Stefan Jaracz, Józef Węgrzyn, Jadwiga Smosarska, Kalina Jędrusik, Józef Elsner, Stanisław Moniuszko, Jan Kiepura, Leopold Staff, Bolesław Leśmian...
 Après 1945, un mausolée a été aménagé dans le bâtiment des catacombes, où sont déposées les cendres des personnes assassinées dans les camps de concentration.
 Depuis plusieurs décennies, des quêtes en faveur de la protection du patrimoine de Powązki sont organisées à la Toussaint à l'initiative de l’écrivain et critique musical Jerzy Waldorff, dont la tombe se trouve également au cimetière.
-Cimetière militaire
-À un kilomètre de là, toujours dans le quartier de Powązki, se trouve le cimetière militaire de Powązki, où l'on retrouve également de grandes sections avec les tombes de ceux qui ont péri pendant la Grande Guerre et la Seconde Guerre mondiale. Chaque année, les Varsoviens s'y rassemblent le 1er août pour y commémorer le soulèvement contre l'occupant allemand et la mort de plus de 250 000 habitants de la ville détruite en 1944. Ce fut le combat le plus long et le plus tragique de l'histoire polonaise. 
-En octobre 2012, les restes de 117 victimes polonaises de la terreur stalinienne sont exhumés du cimetière militaire, après y avoir été enterrées dans l'anonymat et en secret entre 1948 et 1956[1].
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Pow%C4%85zki</t>
+          <t>Cimetière_de_Powązki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +559,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cimetière militaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À un kilomètre de là, toujours dans le quartier de Powązki, se trouve le cimetière militaire de Powązki, où l'on retrouve également de grandes sections avec les tombes de ceux qui ont péri pendant la Grande Guerre et la Seconde Guerre mondiale. Chaque année, les Varsoviens s'y rassemblent le 1er août pour y commémorer le soulèvement contre l'occupant allemand et la mort de plus de 250 000 habitants de la ville détruite en 1944. Ce fut le combat le plus long et le plus tragique de l'histoire polonaise. 
+En octobre 2012, les restes de 117 victimes polonaises de la terreur stalinienne sont exhumés du cimetière militaire, après y avoir été enterrées dans l'anonymat et en secret entre 1948 et 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Powązki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Pow%C4%85zki</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques personnalités inhumées aux cimetières de Powązki</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jerzy Andrzejewski (1909–1983), écrivain
